--- a/results/minimal_seats-Estonia.xlsx
+++ b/results/minimal_seats-Estonia.xlsx
@@ -19,49 +19,49 @@
     <t>Key</t>
   </si>
   <si>
-    <t>EKD</t>
-  </si>
-  <si>
-    <t>ERL</t>
-  </si>
-  <si>
-    <t>EÜR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL </t>
-  </si>
-  <si>
-    <t>KeE</t>
-  </si>
-  <si>
-    <t>M -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER </t>
-  </si>
-  <si>
-    <t>IRL</t>
-  </si>
-  <si>
-    <t>SDT</t>
-  </si>
-  <si>
-    <t>EKR</t>
-  </si>
-  <si>
-    <t>EVA</t>
-  </si>
-  <si>
-    <t>SDE</t>
+    <t>EKD - Coalition Party  (Eestil Koonderakond, EKD)</t>
+  </si>
+  <si>
+    <t>ERL - People's Union  of Estonia (Eestimaa Rahvaliit, ERL)</t>
+  </si>
+  <si>
+    <t>EÜRP - United People's Party of Estonia (Eestimaa Ühendatud Rahvapartei, EÜRP)</t>
+  </si>
+  <si>
+    <t>IL - Pro Patria Union (Isamaaliit, IL)</t>
+  </si>
+  <si>
+    <t>KeE - Centre Party (Keskerakond, KeE)</t>
+  </si>
+  <si>
+    <t>M - Moderates  (Mõõdukad, M)</t>
+  </si>
+  <si>
+    <t>RE - Reform Party   (, RE)</t>
+  </si>
+  <si>
+    <t>RL - People's Union  (, RL)</t>
+  </si>
+  <si>
+    <t>RP - Res Publica (Res Publica, RP)</t>
+  </si>
+  <si>
+    <t>ER - Estonian Greens (Eestimaa Rohelised, ER)</t>
+  </si>
+  <si>
+    <t>IRL - Pro Patria and Res Publica Union (Isamaa ja Res Publica Liit, IRL)</t>
+  </si>
+  <si>
+    <t>SDTP - Social Democratic Labour Party (, SDTP)</t>
+  </si>
+  <si>
+    <t>EKRE - Conservative People’s Party (Eesti Konservatiivne Rahvaerakond, EKRE)</t>
+  </si>
+  <si>
+    <t>EVA - Estonian Free Party (Eesti Vabaerakond, EVA)</t>
+  </si>
+  <si>
+    <t>SDE - Social Democratic Party (, SDE)</t>
   </si>
   <si>
     <t>1999</t>
